--- a/Resources/Data/Experimento 1-1.xlsx
+++ b/Resources/Data/Experimento 1-1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Dropbox/Shared folders/Instrumentação/Lab 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-lab2/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibração" sheetId="1" r:id="rId1"/>
     <sheet name="Amortecimento" sheetId="2" r:id="rId2"/>
     <sheet name="Formas de onda" sheetId="3" r:id="rId3"/>
+    <sheet name="Calibração com " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Ângulo (graus)</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>Tensão (V)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -387,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,8 +425,8 @@
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2">
-        <v>1.38</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1.37</v>
@@ -432,7 +436,7 @@
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("{",A2,",",B2,",",C2,"},")</f>
-        <v>{30,1.38,1.37},</v>
+        <v>{30,s,1.37},</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -993,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1102,4 +1106,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>